--- a/banco_hengst_2017.xlsx
+++ b/banco_hengst_2017.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PythonProjects\mercos_importacao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966A891D-01A2-4F93-B448-B70E4F2F8275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E3C68F-EDD8-48B7-A66C-930005CCBC6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15960" xr2:uid="{C4D989C1-D52C-4949-A493-54D430ACCB79}"/>
   </bookViews>
@@ -754,16 +754,15 @@
     </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Base de Dados Hengst"/>
+      <sheetName val="Itens Hengst"/>
       <sheetName val="Base de Dados Imp"/>
-      <sheetName val="Itens Hengst"/>
       <sheetName val="Itens Impor"/>
       <sheetName val="ITENS NÃO EXISTEM"/>
       <sheetName val="Clientes"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1">
         <row r="1">
           <cell r="A1" t="str">
             <v>Código do produto</v>
@@ -13767,9 +13766,10 @@
           </cell>
         </row>
       </sheetData>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -14075,7 +14075,7 @@
   <dimension ref="A1:J279"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
